--- a/defineFiles/广告配置导入模板.xlsx
+++ b/defineFiles/广告配置导入模板.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfc/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395FCA7E-7BEA-264A-8822-57D3A32ED755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098BC997-7721-2049-B6BE-7776A0C656AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="46200" yWindow="3400" windowWidth="26720" windowHeight="16760" activeTab="1" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$78</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="227">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +63,475 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>com.wordgame.puzzle.block.crush.de</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>android</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_DE-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.fr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_FR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_FR-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.es</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe_ES-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Swipe Puzzle-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Cross_DE</t>
+  </si>
+  <si>
+    <t>Word Cross_DE-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.de</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Cross_IT</t>
+  </si>
+  <si>
+    <t>Word Cross_IT-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.it</t>
+  </si>
+  <si>
+    <t>Word Cross_SV</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.sv</t>
+  </si>
+  <si>
+    <t>Word Cross_SV-IOS</t>
+  </si>
+  <si>
+    <t>Word Across</t>
+  </si>
+  <si>
+    <t>com.wordcross.plus.puzzle.en</t>
+  </si>
+  <si>
+    <t>Word Across-IOS</t>
+  </si>
+  <si>
+    <t>Word Tailor_FR</t>
+  </si>
+  <si>
+    <t>word.tailor.match.game.fr</t>
+  </si>
+  <si>
+    <t>Word Shuffle_PT</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.pt</t>
+  </si>
+  <si>
+    <t>Word Shuffle_PT-IOS</t>
+  </si>
+  <si>
+    <t>Word Shuffle_CS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.cs</t>
+  </si>
+  <si>
+    <t>Word Shuffle_CS-IOS</t>
+  </si>
+  <si>
+    <t>Word Shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Across</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Cross</t>
+  </si>
+  <si>
+    <t>Bricks VS Balls-IOS</t>
+  </si>
+  <si>
+    <t>智力类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ball.brick.break</t>
+  </si>
+  <si>
+    <t>Bricks VS Balls</t>
+  </si>
+  <si>
+    <t>com.acoin.ballz.bricks.breaker</t>
+  </si>
+  <si>
+    <t>Collection Fishdom</t>
+  </si>
+  <si>
+    <t>Solitaire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgame.collection.fishdom</t>
+  </si>
+  <si>
+    <t>Pyramid Fishdom</t>
+  </si>
+  <si>
+    <t>com.cardgame.pyramid.fishdom</t>
+  </si>
+  <si>
+    <t>FreeCell Fishdom</t>
+  </si>
+  <si>
+    <t>com.cardgame.freecell.fishdom</t>
+  </si>
+  <si>
+    <t>Solitaire1</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.basic1</t>
+  </si>
+  <si>
+    <t>Solitaire2</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.basic2</t>
+  </si>
+  <si>
+    <t>Solitaire Fishdom</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.fishdom</t>
+  </si>
+  <si>
+    <t>Solitaire Flat</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.flat</t>
+  </si>
+  <si>
+    <t>Super Challenges</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.full</t>
+  </si>
+  <si>
+    <t>Solitaire Lite</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.lite</t>
+  </si>
+  <si>
+    <t>Tripeaks Fishdom</t>
+  </si>
+  <si>
+    <t>com.cardgame.tripeaks.fishdom</t>
+  </si>
+  <si>
+    <t>Spider Fishdom</t>
+  </si>
+  <si>
+    <t>com.cardgame.spider.fishdom</t>
+  </si>
+  <si>
+    <t>New Solitaire Lite</t>
+  </si>
+  <si>
+    <t>com.cardgames.classic.solitaire</t>
+  </si>
+  <si>
+    <t>Domino Classic</t>
+  </si>
+  <si>
+    <t>com.dominos.board.games</t>
+  </si>
+  <si>
+    <t>Solitaire Club</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.tournaments.free.klondike.classic</t>
+  </si>
+  <si>
+    <t>Solitaire Collection_IOS</t>
+  </si>
+  <si>
+    <t>com.queensgame.collection</t>
+  </si>
+  <si>
+    <t>Solitaire Collection</t>
+  </si>
+  <si>
+    <t>FreeCell2</t>
+  </si>
+  <si>
+    <t>com.hapogames.FreeCell</t>
+  </si>
+  <si>
+    <t>FreeCell_IOS</t>
+  </si>
+  <si>
+    <t>com.queensgame.freecell</t>
+  </si>
+  <si>
+    <t>FreeCell</t>
+  </si>
+  <si>
+    <t>Daily Challenge</t>
+  </si>
+  <si>
+    <t>com.queensgame.solitaire.dailyChallenge</t>
+  </si>
+  <si>
+    <t>Pyramid Solitaire</t>
+  </si>
+  <si>
+    <t>com.queensgame.pyramid</t>
+  </si>
+  <si>
+    <t>Classic Solitaire</t>
+  </si>
+  <si>
+    <t>com.queensgame.solitaire</t>
+  </si>
+  <si>
+    <t>Solitaire_IOS</t>
+  </si>
+  <si>
+    <t>Spider Solitaire</t>
+  </si>
+  <si>
+    <t>com.queensgame.spider</t>
+  </si>
+  <si>
+    <t>Spider Solitaire_IOS</t>
+  </si>
+  <si>
+    <t>Spider2</t>
+  </si>
+  <si>
+    <t>com.queensgame.spider2</t>
+  </si>
+  <si>
+    <t>Tripeaks Solitaire</t>
+  </si>
+  <si>
+    <t>com.queensgame.tripeaks</t>
+  </si>
+  <si>
+    <t>Classic Solitaire Journey</t>
+  </si>
+  <si>
+    <t>Tripeaks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgame.classic.solitaire</t>
+  </si>
+  <si>
+    <t>Classic Solitaire Journey instant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgame.classic.solitaire.facebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solitaire Discovery</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.discovery</t>
+  </si>
+  <si>
+    <t>Solitaire Discovery-IOS</t>
+  </si>
+  <si>
+    <t>Classic Solitaire World</t>
+  </si>
+  <si>
+    <t>com.cardgames.classic.solitaire.world</t>
+  </si>
+  <si>
+    <t>Classic Solitaire World instant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgames.classic.solitaire.world.facebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solitaire Collection Fun-IOS</t>
+  </si>
+  <si>
+    <r>
+      <t>Solitaire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Fun</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.collection.classic</t>
+  </si>
+  <si>
+    <t>Solitaire Collection Fun</t>
+  </si>
+  <si>
+    <t>FreeCell Solitaire Fun-IOS</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.freecell.classic</t>
+  </si>
+  <si>
+    <t>FreeCell Solitaire Fun</t>
+  </si>
+  <si>
+    <t>Solitaire Fun_CN</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.klondike.classic.tt</t>
+  </si>
+  <si>
+    <t>Solitaire Fun-IOS</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.klondike.spider.freecell.classic</t>
+  </si>
+  <si>
+    <t>Solitaire Fun</t>
+  </si>
+  <si>
+    <t>Spider Solitaire Fun</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.spider.classic</t>
+  </si>
+  <si>
+    <t>Spider Solitaire Fun-IOS</t>
+  </si>
+  <si>
+    <t>Pyramid Solitaire Fun</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.pyramid.classic</t>
+  </si>
+  <si>
+    <t>Pyramid Solitaire Fun-IOS</t>
+  </si>
+  <si>
+    <t>TriPeaks Solitaire Fun</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.fun.free.tripeaks.classic</t>
+  </si>
+  <si>
+    <t>TriPeaks Solitaire Fun-IOS</t>
+  </si>
+  <si>
+    <t>Solitaire-Fish Go-IOS</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.patience.fish.go</t>
+  </si>
+  <si>
+    <t>Solitaire Collection Plus</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.patience.free.klondike.spider.collection.classic</t>
+  </si>
+  <si>
+    <t>Solitaire Journey_IOS</t>
+  </si>
+  <si>
+    <t>com.queensgame.solitaire.journey</t>
+  </si>
+  <si>
+    <t>Solitaire Journey</t>
+  </si>
+  <si>
+    <t>Classic Solitaire Journey-IOS</t>
+  </si>
+  <si>
+    <t>com.solitaire.game.classic</t>
+  </si>
+  <si>
+    <t>Solitaire-Dream Farm</t>
+  </si>
+  <si>
+    <t>com.solitaire.tripeaks.free.card.games.dream.farm.animal</t>
+  </si>
+  <si>
+    <t>Solitaire Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.solitaire.klondike.patience.ocean.aquarium</t>
+  </si>
+  <si>
     <t>folder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,9 +540,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WordGameAD</t>
+  </si>
+  <si>
     <t>SolitaireAD</t>
   </si>
   <si>
+    <t>TripeaksAD</t>
+  </si>
+  <si>
+    <t>SolitairefishAD</t>
+  </si>
+  <si>
+    <t>ACoinGamesAD</t>
+  </si>
+  <si>
     <t>Gems Journey</t>
   </si>
   <si>
@@ -117,7 +598,7 @@
   </si>
   <si>
     <t>Bubble Shooter 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BubbleSpace</t>
@@ -178,21 +659,21 @@
   </si>
   <si>
     <t>com.game.BubbleShooter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>com.pandoomobile.GemsJourney</t>
   </si>
   <si>
     <t>com.game.BMX_Boy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>com.game.JewelsStar</t>
   </si>
   <si>
     <t>com.game.SkaterBoy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>com.coolmango.sudokufun</t>
@@ -301,7 +782,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -312,6 +793,13 @@
     <font>
       <sz val="9"/>
       <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -345,10 +833,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -662,11 +1151,1359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795AE866-1385-4E4B-A976-49DEA77E765F}">
+  <dimension ref="A1:E78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E78" xr:uid="{CD4B57A2-BA3A-AB48-A8E9-7E3D59409EDD}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9F4107-D20A-EA47-9773-BA4C00555135}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -691,7 +2528,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -708,727 +2545,727 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
